--- a/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_lexical_density.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/press_release/Fakespeak_press_release_lexical_density.xlsx
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.495575221238938</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.4426059979317477</v>
+        <v>0.5107398568019093</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.4618320610687023</v>
+        <v>0.555045871559633</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.5241920759539894</v>
+        <v>0.5818033455732354</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5294117647058824</v>
+        <v>0.6496350364963503</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4790575916230366</v>
+        <v>0.5366568914956011</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5070422535211268</v>
+        <v>0.6271929824561403</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -599,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5333333333333333</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4554973821989529</v>
+        <v>0.5308641975308642</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.496274217585693</v>
+        <v>0.5644067796610169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -623,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5332681017612525</v>
+        <v>0.6055555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.417910447761194</v>
+        <v>0.5436893203883495</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.4960070984915705</v>
+        <v>0.589041095890411</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.5100286532951289</v>
+        <v>0.5705128205128205</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -676,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.5075757575757576</v>
+        <v>0.559322033898305</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.5438282647584973</v>
+        <v>0.6320166320166321</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.4781491002570694</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -700,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.4698795180722892</v>
+        <v>0.5390070921985816</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -708,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.5374149659863946</v>
+        <v>0.6151832460732984</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -716,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.5102040816326531</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -724,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.5253164556962026</v>
+        <v>0.5857142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>0.5339168490153173</v>
+        <v>0.5955882352941176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -761,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>0.4645340751043116</v>
+        <v>0.5277337559429477</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -769,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>0.4647887323943662</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -777,7 +777,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0.5324324324324324</v>
+        <v>0.6024464831804281</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -785,7 +785,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>0.4984051036682616</v>
+        <v>0.5643115942028986</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -793,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>0.4910179640718563</v>
+        <v>0.5587734241908007</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.5025906735751295</v>
+        <v>0.565597667638484</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.5254237288135594</v>
+        <v>0.6065573770491803</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -859,7 +859,7 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.4766081871345029</v>
+        <v>0.5759717314487632</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -867,7 +867,7 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.5095890410958904</v>
+        <v>0.5602409638554217</v>
       </c>
     </row>
   </sheetData>
@@ -920,25 +920,25 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.4810513390483444</v>
+        <v>0.5577306018170278</v>
       </c>
       <c r="D2">
-        <v>0.03614549872519199</v>
+        <v>0.03391329506589277</v>
       </c>
       <c r="E2">
-        <v>0.4426059979317477</v>
+        <v>0.5107398568019093</v>
       </c>
       <c r="F2">
-        <v>0.4570255452844636</v>
+        <v>0.5439693678702021</v>
       </c>
       <c r="G2">
-        <v>0.4787036411538201</v>
+        <v>0.5684246085664342</v>
       </c>
       <c r="H2">
-        <v>0.5027294349177009</v>
+        <v>0.5821858425132599</v>
       </c>
       <c r="I2">
-        <v>0.5241920759539894</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -949,25 +949,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.5048406635327539</v>
+        <v>0.5913302061707898</v>
       </c>
       <c r="D3">
-        <v>0.03000402110270438</v>
+        <v>0.04724367325764119</v>
       </c>
       <c r="E3">
-        <v>0.4554973821989529</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="F3">
-        <v>0.4876659046043648</v>
+        <v>0.5505318355783091</v>
       </c>
       <c r="G3">
-        <v>0.5070422535211268</v>
+        <v>0.6055555555555555</v>
       </c>
       <c r="H3">
-        <v>0.5313399332335674</v>
+        <v>0.6260964912280702</v>
       </c>
       <c r="I3">
-        <v>0.5333333333333333</v>
+        <v>0.6496350364963503</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.4996314343526757</v>
+        <v>0.5758888440568282</v>
       </c>
       <c r="D4">
-        <v>0.03706120068547451</v>
+        <v>0.03091194396711534</v>
       </c>
       <c r="E4">
-        <v>0.417910447761194</v>
+        <v>0.5390070921985816</v>
       </c>
       <c r="F4">
-        <v>0.4826135998156947</v>
+        <v>0.5489214175654853</v>
       </c>
       <c r="G4">
-        <v>0.5088022054354433</v>
+        <v>0.5747300944669366</v>
       </c>
       <c r="H4">
-        <v>0.5215383621803151</v>
+        <v>0.5882093933463797</v>
       </c>
       <c r="I4">
-        <v>0.5438282647584973</v>
+        <v>0.6320166320166321</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1007,25 +1007,25 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.4975158594477576</v>
+        <v>0.5642398097774752</v>
       </c>
       <c r="D5">
-        <v>0.03080933447427251</v>
+        <v>0.03023183896021963</v>
       </c>
       <c r="E5">
-        <v>0.4645340751043116</v>
+        <v>0.5277337559429477</v>
       </c>
       <c r="F5">
-        <v>0.4713460403137387</v>
+        <v>0.5421323804379441</v>
       </c>
       <c r="G5">
-        <v>0.494711533870059</v>
+        <v>0.5615425091968496</v>
       </c>
       <c r="H5">
-        <v>0.5239256002413897</v>
+        <v>0.5877690750213129</v>
       </c>
       <c r="I5">
-        <v>0.5339168490153173</v>
+        <v>0.6024464831804281</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1036,22 +1036,22 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.5025906735751295</v>
+        <v>0.565597667638484</v>
       </c>
       <c r="E6">
-        <v>0.5025906735751295</v>
+        <v>0.565597667638484</v>
       </c>
       <c r="F6">
-        <v>0.5025906735751295</v>
+        <v>0.565597667638484</v>
       </c>
       <c r="G6">
-        <v>0.5025906735751295</v>
+        <v>0.565597667638484</v>
       </c>
       <c r="H6">
-        <v>0.5025906735751295</v>
+        <v>0.565597667638484</v>
       </c>
       <c r="I6">
-        <v>0.5025906735751295</v>
+        <v>0.565597667638484</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1062,25 +1062,25 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.5038736523479842</v>
+        <v>0.5809233574511218</v>
       </c>
       <c r="D7">
-        <v>0.02490458850813829</v>
+        <v>0.02355188915637492</v>
       </c>
       <c r="E7">
-        <v>0.4766081871345029</v>
+        <v>0.5602409638554217</v>
       </c>
       <c r="F7">
-        <v>0.4930986141151967</v>
+        <v>0.5681063476520924</v>
       </c>
       <c r="G7">
-        <v>0.5095890410958904</v>
+        <v>0.5759717314487632</v>
       </c>
       <c r="H7">
-        <v>0.5175063849547249</v>
+        <v>0.5912645542489718</v>
       </c>
       <c r="I7">
-        <v>0.5254237288135594</v>
+        <v>0.6065573770491803</v>
       </c>
     </row>
   </sheetData>
